--- a/IT.xlsx
+++ b/IT.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15975" windowHeight="9750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15975" windowHeight="9750" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="IT" sheetId="1" r:id="rId1"/>
+    <sheet name="one_on_one_talk_statistic" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="162">
   <si>
     <t>單位名</t>
   </si>
@@ -35,68 +36,488 @@
     <t>姓名</t>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A0000001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A0000002</t>
-  </si>
-  <si>
-    <t>A0000003</t>
-  </si>
-  <si>
-    <t>A0000004</t>
-  </si>
-  <si>
-    <t>丁丁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>迪西</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉拉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小波</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>資訊中心</t>
+  </si>
+  <si>
+    <t>伺服器資訊開發中心</t>
+  </si>
+  <si>
+    <t>IEC091264</t>
+  </si>
+  <si>
+    <t>黃英哲</t>
+  </si>
+  <si>
+    <t>IEC930136</t>
+  </si>
+  <si>
+    <t>王一安</t>
+  </si>
+  <si>
+    <t>IEC870954</t>
+  </si>
+  <si>
+    <t>司笑梅</t>
+  </si>
+  <si>
+    <t>資訊專案計劃室</t>
+  </si>
+  <si>
+    <t>IEC910097</t>
+  </si>
+  <si>
+    <t>許智芳</t>
+  </si>
+  <si>
+    <t>IEC110946</t>
+  </si>
+  <si>
+    <t>吳彥輝</t>
+  </si>
+  <si>
+    <t>IEC120713</t>
+  </si>
+  <si>
+    <t>楊家福</t>
+  </si>
+  <si>
+    <t>IEC880176</t>
+  </si>
+  <si>
+    <t>邱雯鈴</t>
+  </si>
+  <si>
+    <t>全球資訊架構管理處</t>
+  </si>
+  <si>
+    <t>資訊架構管理二部</t>
+  </si>
+  <si>
+    <t>IEC110828</t>
+  </si>
+  <si>
+    <t>林志鴻</t>
+  </si>
+  <si>
+    <t>IEC910102</t>
+  </si>
+  <si>
+    <t>楊文河</t>
+  </si>
+  <si>
+    <t>IEC910161</t>
+  </si>
+  <si>
+    <t>陳莉青</t>
+  </si>
+  <si>
+    <t>IEC910178</t>
+  </si>
+  <si>
+    <t>田淳允</t>
+  </si>
+  <si>
+    <t>IEC940508</t>
+  </si>
+  <si>
+    <t>許惠媛</t>
+  </si>
+  <si>
+    <t>IEC950779</t>
+  </si>
+  <si>
+    <t>簡慈慧</t>
+  </si>
+  <si>
+    <t>IEC010089</t>
+  </si>
+  <si>
+    <t>黃信泰</t>
+  </si>
+  <si>
+    <t>IEC070178</t>
+  </si>
+  <si>
+    <t>劉學儒</t>
+  </si>
+  <si>
+    <t>IEC081291</t>
+  </si>
+  <si>
+    <t>林垂冠</t>
+  </si>
+  <si>
+    <t>IEC081598</t>
+  </si>
+  <si>
+    <t>廖運禎</t>
+  </si>
+  <si>
+    <t>IEC090232</t>
+  </si>
+  <si>
+    <t>胡志豪</t>
+  </si>
+  <si>
+    <t>IEC110212</t>
+  </si>
+  <si>
+    <t>陳登貴</t>
+  </si>
+  <si>
+    <t>IEC110827</t>
+  </si>
+  <si>
+    <t>蔡銘芳</t>
+  </si>
+  <si>
+    <t>IEC111359</t>
+  </si>
+  <si>
+    <t>吳宏彬</t>
+  </si>
+  <si>
+    <t>IEC111385</t>
+  </si>
+  <si>
+    <t>黃議德</t>
+  </si>
+  <si>
+    <t>企業資訊開發二處</t>
+  </si>
+  <si>
+    <t>IEC920431</t>
+  </si>
+  <si>
+    <t>楊士興</t>
+  </si>
+  <si>
+    <t>IEC870653</t>
+  </si>
+  <si>
+    <t>龔志鴻</t>
+  </si>
+  <si>
+    <t>工程系統暨資料應用開發部</t>
+  </si>
+  <si>
+    <t>IEC980248</t>
+  </si>
+  <si>
+    <t>楊民湘</t>
+  </si>
+  <si>
+    <t>IEC870444</t>
+  </si>
+  <si>
+    <t>曾麗青</t>
+  </si>
+  <si>
+    <t>IEC880003</t>
+  </si>
+  <si>
+    <t>林美芸</t>
+  </si>
+  <si>
+    <t>IEC910148</t>
+  </si>
+  <si>
+    <t>黃禎文</t>
+  </si>
+  <si>
+    <t>IEC950587</t>
+  </si>
+  <si>
+    <t>王麗卿</t>
+  </si>
+  <si>
+    <t>IEC960797</t>
+  </si>
+  <si>
+    <t>徐韻雯</t>
+  </si>
+  <si>
+    <t>IEC960845</t>
+  </si>
+  <si>
+    <t>黃信諭</t>
+  </si>
+  <si>
+    <t>IEC971001</t>
+  </si>
+  <si>
+    <t>俞國華</t>
+  </si>
+  <si>
+    <t>IEC070430</t>
+  </si>
+  <si>
+    <t>黃軍豪</t>
+  </si>
+  <si>
+    <t>IEC091088</t>
+  </si>
+  <si>
+    <t>趙美晏</t>
+  </si>
+  <si>
+    <t>IEC100467</t>
+  </si>
+  <si>
+    <t>莊晴如</t>
+  </si>
+  <si>
+    <t>IEC100672</t>
+  </si>
+  <si>
+    <t>陳睿汯</t>
+  </si>
+  <si>
+    <t>IEC110748</t>
+  </si>
+  <si>
+    <t>盧佳榕</t>
+  </si>
+  <si>
+    <t>IEC120193</t>
+  </si>
+  <si>
+    <t>黃振倫</t>
+  </si>
+  <si>
+    <t>IEC120194</t>
+  </si>
+  <si>
+    <t>陳昀靖</t>
+  </si>
+  <si>
+    <t>IEC120661</t>
+  </si>
+  <si>
+    <t>林芷如</t>
+  </si>
+  <si>
+    <t>系統營運管理部</t>
+  </si>
+  <si>
+    <t>IEC960721</t>
+  </si>
+  <si>
+    <t>林嘉麒</t>
+  </si>
+  <si>
+    <t>IEC870561</t>
+  </si>
+  <si>
+    <t>劉芊嶠</t>
+  </si>
+  <si>
+    <t>IEC939220</t>
+  </si>
+  <si>
+    <t>梁雪雲</t>
+  </si>
+  <si>
+    <t>IEC959060</t>
+  </si>
+  <si>
+    <t>謝旻文</t>
+  </si>
+  <si>
+    <t>IEC960449</t>
+  </si>
+  <si>
+    <t>曾于珊</t>
+  </si>
+  <si>
+    <t>IEC050281</t>
+  </si>
+  <si>
+    <t>黃韻芳</t>
+  </si>
+  <si>
+    <t>IEC090405</t>
+  </si>
+  <si>
+    <t>謝祥昱</t>
+  </si>
+  <si>
+    <t>IEC080057</t>
+  </si>
+  <si>
+    <t>林榆虹</t>
+  </si>
+  <si>
+    <t>企業資訊開發一處</t>
+  </si>
+  <si>
+    <t>客戶需求開發部</t>
+  </si>
+  <si>
+    <t>IEC880160</t>
+  </si>
+  <si>
+    <t>彭立珍</t>
+  </si>
+  <si>
+    <t>IEC910719</t>
+  </si>
+  <si>
+    <t>俞有清</t>
+  </si>
+  <si>
+    <t>IEC960411</t>
+  </si>
+  <si>
+    <t>陳國基</t>
+  </si>
+  <si>
+    <t>IEC070325</t>
+  </si>
+  <si>
+    <t>林瑞庭</t>
+  </si>
+  <si>
+    <t>IEC090292</t>
+  </si>
+  <si>
+    <t>陳彥廷</t>
+  </si>
+  <si>
+    <t>IEC110142</t>
+  </si>
+  <si>
+    <t>趙秉宏</t>
+  </si>
+  <si>
+    <t>IEC121243</t>
+  </si>
+  <si>
+    <t>連雅陞</t>
+  </si>
+  <si>
+    <t>生產規劃開發部</t>
+  </si>
+  <si>
+    <t>IEC810308</t>
+  </si>
+  <si>
+    <t>張金生</t>
+  </si>
+  <si>
+    <t>IEC870625</t>
+  </si>
+  <si>
+    <t>羅祝英</t>
+  </si>
+  <si>
+    <t>IEC050207</t>
+  </si>
+  <si>
+    <t>林韋志</t>
+  </si>
+  <si>
+    <t>IEC081008</t>
+  </si>
+  <si>
+    <t>佘純寧</t>
+  </si>
+  <si>
+    <t>IEC090902</t>
+  </si>
+  <si>
+    <t>游雅婷</t>
+  </si>
+  <si>
+    <t>IEC110724</t>
+  </si>
+  <si>
+    <t>施佑霖</t>
+  </si>
+  <si>
+    <t>IEC121085</t>
+  </si>
+  <si>
+    <t>李玟萱</t>
+  </si>
+  <si>
+    <t>物料管理開發部</t>
+  </si>
+  <si>
+    <t>IEC030190</t>
+  </si>
+  <si>
+    <t>林鈺淵</t>
+  </si>
+  <si>
+    <t>IEC020413</t>
+  </si>
+  <si>
+    <t>戴婉如</t>
+  </si>
+  <si>
+    <t>IEC070408</t>
+  </si>
+  <si>
+    <t>劉育昕</t>
+  </si>
+  <si>
+    <t>IEC110048</t>
+  </si>
+  <si>
+    <t>王慶樺</t>
+  </si>
+  <si>
+    <t>IEC110072</t>
+  </si>
+  <si>
+    <t>楊彩汝</t>
+  </si>
+  <si>
+    <t>IEC111482</t>
+  </si>
+  <si>
+    <t>黃筱筑</t>
+  </si>
+  <si>
+    <t>IEC120405</t>
+  </si>
+  <si>
+    <t>謝孟秦</t>
+  </si>
+  <si>
+    <t>事業處名</t>
+  </si>
+  <si>
+    <t>處級名</t>
+  </si>
+  <si>
+    <t>部級名</t>
+  </si>
+  <si>
+    <t>上級主管</t>
+  </si>
+  <si>
+    <t>IEC070667</t>
+  </si>
+  <si>
+    <t>林士鈞</t>
+  </si>
+  <si>
+    <t>海外系統支援一部</t>
+  </si>
+  <si>
+    <t>資訊架構管理部</t>
+  </si>
+  <si>
+    <t>IEC910718</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -119,8 +540,21 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,8 +567,20 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6A6A6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -170,13 +616,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -188,6 +715,51 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,15 +1041,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E5"/>
+  <dimension ref="B1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
@@ -493,59 +1067,2291 @@
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B6" s="17" t="s">
         <v>17</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
